--- a/genetic_ncDrone/Resultados/RESULTADOS_GERAIS.xlsx
+++ b/genetic_ncDrone/Resultados/RESULTADOS_GERAIS.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t xml:space="preserve">Estrategia</t>
   </si>
@@ -92,6 +92,12 @@
     <t xml:space="preserve">Evap time = 1; Evap factor = 0.32; Threshold  = 4 </t>
   </si>
   <si>
+    <t xml:space="preserve">Quadrant  type B + Evap + Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 5; Evap factor = 0.32;Threshold =3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quadrant  type B + Evaporation 2 </t>
   </si>
   <si>
@@ -99,6 +105,12 @@
   </si>
   <si>
     <t xml:space="preserve">Quadrant  type A + Evaporation 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quadrant  type A + Evap + Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 5; Evap factor = 0.32;Threshold = 3</t>
   </si>
   <si>
     <t xml:space="preserve">Quadrant  type A + Evaporation</t>
@@ -301,7 +313,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -336,6 +348,7 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -382,16 +395,16 @@
                   <c:v>Evaporation + Time </c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Quadrant  type B + Evap + Time</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Quadrant  type B + Evaporation 2 </c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>Quadrant  type A + Evaporation 2</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>Quadrant  type A + Evaporation</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>Quadrant  type B + Evaporation</c:v>
+                  <c:v>Quadrant  type A + Evap + Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -436,16 +449,16 @@
                   <c:v>12379.0333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>7888.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>7735.06666666667</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>7373.56666666667</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>4422</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>4461</c:v>
+                  <c:v>6980.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,11 +466,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="42687005"/>
-        <c:axId val="56309834"/>
+        <c:axId val="81986245"/>
+        <c:axId val="2024294"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42687005"/>
+        <c:axId val="81986245"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -485,14 +498,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56309834"/>
+        <c:crossAx val="2024294"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56309834"/>
+        <c:axId val="2024294"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -507,7 +520,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -529,7 +542,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42687005"/>
+        <c:crossAx val="81986245"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -576,7 +589,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -692,11 +705,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="26734788"/>
-        <c:axId val="77586621"/>
+        <c:axId val="42726330"/>
+        <c:axId val="32303532"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="26734788"/>
+        <c:axId val="42726330"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -724,14 +737,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77586621"/>
+        <c:crossAx val="32303532"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77586621"/>
+        <c:axId val="32303532"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,7 +781,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26734788"/>
+        <c:crossAx val="42726330"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -827,9 +840,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>5883840</xdr:colOff>
+      <xdr:colOff>5883120</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -838,7 +851,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9687600" y="3330000"/>
-        <a:ext cx="5759280" cy="3232440"/>
+        <a:ext cx="5758560" cy="3231720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -862,9 +875,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1146600</xdr:colOff>
+      <xdr:colOff>1145880</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -873,7 +886,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="841320" y="1666800"/>
-        <a:ext cx="5757120" cy="3233880"/>
+        <a:ext cx="5756400" cy="3233160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -894,7 +907,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1219,22 +1232,22 @@
         <v>23</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>637.034262203171</v>
+        <v>637.638432557731</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>7.64142275678719</v>
+        <v>7.11694350070565</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.928735344259865</v>
+        <v>0.928812432516881</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.0556302478115707</v>
+        <v>0.0466280794721949</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7735.06666666667</v>
+        <v>7888.4</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1239.61434306813</v>
+        <v>1209.49501003946</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>24</v>
@@ -1245,51 +1258,51 @@
         <v>25</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>633.881573172315</v>
+        <v>637.034262203171</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.43259607445784</v>
+        <v>7.64142275678719</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.900503970180071</v>
+        <v>0.928735344259865</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0460154362025134</v>
+        <v>0.0556302478115707</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7373.56666666667</v>
+        <v>7735.06666666667</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1129.6664958978</v>
+        <v>1239.61434306813</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>633.881573172315</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.43259607445784</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.900503970180071</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.0460154362025134</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7373.56666666667</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1129.6664958978</v>
+      </c>
+      <c r="I15" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <v>612.636025822038</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>0.813384435553089</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>4422</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1297,24 +1310,76 @@
         <v>28</v>
       </c>
       <c r="B16" s="5" t="n">
+        <v>631.324910137899</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>8.0904035289663</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.903325084617783</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.0522398133969506</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>6980.8</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>1022.79129229096</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>612.636025822038</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.813384435553089</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>4422</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="5" t="n">
         <v>612.565931392732</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D18" s="5" t="n">
         <v>0.799996399991914</v>
       </c>
-      <c r="E16" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F18" s="5" t="n">
         <v>4461</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I18" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1355,7 +1420,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>

--- a/genetic_ncDrone/Resultados/RESULTADOS_GERAIS.xlsx
+++ b/genetic_ncDrone/Resultados/RESULTADOS_GERAIS.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="10k" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Planilha2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t xml:space="preserve">Estrategia</t>
   </si>
@@ -44,9 +44,6 @@
     <t xml:space="preserve">Nc Drone Normal</t>
   </si>
   <si>
-    <t xml:space="preserve">Quadrant Strategy type B</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quadrant Strategy type A</t>
   </si>
   <si>
@@ -56,6 +53,36 @@
     <t xml:space="preserve">Time threshold = 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">Quadrant  type A + Time(normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Threshold  = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaporation Strategy Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time =100; Evap factor = 0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaporation Normal + Time Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time =100; Evap factor = 0.1; Time threshold = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quadrant  type A + Evap (normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 100; Evap factor = 0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quadrant  type A + Evap + time (normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 100; Evap factor = 0.1; Threshold  = 0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Time Strategy </t>
   </si>
   <si>
@@ -65,21 +92,6 @@
     <t xml:space="preserve">Quadrant  type A + Time</t>
   </si>
   <si>
-    <t xml:space="preserve">Quadrant  type B + Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaporation Strategy Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evap time =100; Evap factor = 0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaporation Normal + Time Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evap time =100; Evap factor = 0.1; Time threshold = 0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Evaporation Strategy </t>
   </si>
   <si>
@@ -92,21 +104,12 @@
     <t xml:space="preserve">Evap time = 1; Evap factor = 0.32; Threshold  = 4 </t>
   </si>
   <si>
-    <t xml:space="preserve">Quadrant  type B + Evap + Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evap time = 5; Evap factor = 0.32;Threshold =3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant  type B + Evaporation 2 </t>
+    <t xml:space="preserve">Quadrant  type A + Evaporation 2</t>
   </si>
   <si>
     <t xml:space="preserve">Evap time = 5; Evap factor = 0.32</t>
   </si>
   <si>
-    <t xml:space="preserve">Quadrant  type A + Evaporation 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quadrant  type A + Evap + Time</t>
   </si>
   <si>
@@ -117,9 +120,6 @@
   </si>
   <si>
     <t xml:space="preserve">Evap time = 1; Evap factor = 0.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant  type B + Evaporation</t>
   </si>
   <si>
     <t xml:space="preserve">Numero Drones</t>
@@ -212,7 +212,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -234,6 +234,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -313,7 +317,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -328,7 +332,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>10k!$F$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -358,107 +362,83 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>10k!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Nc Drone Normal</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Quadrant Strategy type B</c:v>
+                  <c:v>Quadrant Strategy type A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Quadrant Strategy type A</c:v>
+                  <c:v>Time Strategy Normal</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Time Strategy Normal</c:v>
+                  <c:v>Quadrant  type A + Time(normal)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Time Strategy </c:v>
+                  <c:v>Evaporation Strategy Normal</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Quadrant  type A + Time</c:v>
+                  <c:v>Evaporation Normal + Time Normal</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Quadrant  type B + Time</c:v>
+                  <c:v>Quadrant  type A + Evap (normal)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Evaporation Strategy Normal</c:v>
+                  <c:v>Quadrant  type A + Evap + time (normal)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Evaporation Normal + Time Normal</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Evaporation Strategy </c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Evaporation + Time </c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Quadrant  type B + Evap + Time</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Quadrant  type B + Evaporation 2 </c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Quadrant  type A + Evaporation 2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Quadrant  type A + Evap + Time</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$16</c:f>
+              <c:f>10k!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>5551.56666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6179</c:v>
+                  <c:v>6166.66666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6166.66666666667</c:v>
+                  <c:v>5158.36666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5158.36666666667</c:v>
+                  <c:v>6759</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5562.86666666667</c:v>
+                  <c:v>10720.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6182.4</c:v>
+                  <c:v>10685.7333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6150.96666666667</c:v>
+                  <c:v>11527.5333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10720.7</c:v>
+                  <c:v>11659</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10685.7333333333</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12356.3</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12379.0333333333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7888.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7735.06666666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7373.56666666667</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6980.8</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,11 +446,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="81986245"/>
-        <c:axId val="2024294"/>
+        <c:axId val="7467695"/>
+        <c:axId val="47789388"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81986245"/>
+        <c:axId val="7467695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -498,14 +478,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2024294"/>
+        <c:crossAx val="47789388"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2024294"/>
+        <c:axId val="47789388"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -542,7 +522,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81986245"/>
+        <c:crossAx val="7467695"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -589,7 +569,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -603,7 +583,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha2!$B$1</c:f>
+              <c:f>Planilha2!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -705,11 +685,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="42726330"/>
-        <c:axId val="32303532"/>
+        <c:axId val="48552281"/>
+        <c:axId val="53995506"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42726330"/>
+        <c:axId val="48552281"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,14 +717,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32303532"/>
+        <c:crossAx val="53995506"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32303532"/>
+        <c:axId val="53995506"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +761,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42726330"/>
+        <c:crossAx val="48552281"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -833,16 +813,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>124560</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>686880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>5883120</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:colOff>5685120</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -850,8 +830,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9687600" y="3330000"/>
-        <a:ext cx="5758560" cy="3231720"/>
+        <a:off x="10039680" y="4333320"/>
+        <a:ext cx="5757120" cy="3230280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -868,16 +848,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>841320</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>716400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1145880</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>781560</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -885,8 +865,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="841320" y="1666800"/>
-        <a:ext cx="5756400" cy="3233160"/>
+        <a:off x="10184040" y="1618920"/>
+        <a:ext cx="5754960" cy="3231720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -907,12 +887,12 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.23"/>
@@ -974,415 +954,402 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>737.610560432191</v>
+        <v>736.485124710794</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>5.11849674135898</v>
+        <v>4.77450766255565</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.951173783868661</v>
+        <v>0.911747742192224</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0.0394270108837469</v>
+        <v>0.03987430173292</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>6179</v>
+        <v>6166.66666666667</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>230.50424485582</v>
+        <v>212.864427201484</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>736.485124710794</v>
+        <v>730.588153591864</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>4.77450766255565</v>
+        <v>8.25993116531812</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.911747742192224</v>
+        <v>0.765892718839097</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.03987430173292</v>
+        <v>0.0771200356090342</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6166.66666666667</v>
+        <v>5158.36666666667</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>212.864427201484</v>
+        <v>391.408110794095</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>730.588153591864</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>8.25993116531812</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>0.765892718839097</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>0.0771200356090342</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>5158.36666666667</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>391.408110794095</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>718.228639958675</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>0.885434492212731</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>6759</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>727.456435146107</v>
+        <v>707.089393556389</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.70317417198062</v>
+        <v>6.63753192375439</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.73919633550512</v>
+        <v>0.80492408625179</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0709274829459012</v>
+        <v>0.0986011927520648</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5562.86666666667</v>
+        <v>10720.7</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>354.364485390039</v>
+        <v>468.336980801438</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>720.382968641857</v>
+        <v>703.890547594764</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>4.18025503834332</v>
+        <v>0.403079632768014</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.897871413174695</v>
+        <v>0.703541183782091</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0337510981230759</v>
+        <v>0.047677538149129</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6182.4</v>
+        <v>10685.7333333333</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>196.653134153549</v>
+        <v>3.55191384383447</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>719.604632247391</v>
+        <v>685.969033901508</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.16763211147452</v>
+        <v>3.23234096613193</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.965901382405173</v>
+        <v>0.931081171258638</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0456609634958018</v>
+        <v>0.0425330605001235</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6150.96666666667</v>
+        <v>11527.5333333333</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>199.506370710369</v>
+        <v>256.488049507633</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>707.089393556389</v>
+        <v>684.000621803514</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.63753192375439</v>
+        <v>0</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.80492408625179</v>
+        <v>0.923035340601874</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0986011927520648</v>
+        <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10720.7</v>
+        <v>11659</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>468.336980801438</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>703.890547594764</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>0.403079632768014</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>0.703541183782091</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>0.047677538149129</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>10685.7333333333</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>3.55191384383447</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>18</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>678.820674056799</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>1.9577568868179</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>1.22137874124593</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>0.130944356829041</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>12356.3</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>133.042681769475</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>20</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>678.740684474531</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>1.71766035571182</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>1.22784462895603</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>0.129262392097915</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>12379.0333333333</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>117.659791079118</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>637.638432557731</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>7.11694350070565</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>0.928812432516881</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0.0466280794721949</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>7888.4</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>1209.49501003946</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>637.034262203171</v>
+        <v>727.456435146107</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.64142275678719</v>
+        <v>7.70317417198062</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.928735344259865</v>
+        <v>0.73919633550512</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0556302478115707</v>
+        <v>0.0709274829459012</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7735.06666666667</v>
+        <v>5562.86666666667</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1239.61434306813</v>
+        <v>354.364485390039</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>633.881573172315</v>
+        <v>717.596568259907</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.43259607445784</v>
+        <v>5.71025135315892</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.900503970180071</v>
+        <v>0.889212811259899</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0460154362025134</v>
+        <v>0.0434878059557966</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7373.56666666667</v>
+        <v>6144.33333333333</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1129.6664958978</v>
+        <v>202.036072800487</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>631.324910137899</v>
+        <v>678.820674056799</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>8.0904035289663</v>
+        <v>1.9577568868179</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.903325084617783</v>
+        <v>1.22137874124593</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.0522398133969506</v>
+        <v>0.130944356829041</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6980.8</v>
+        <v>12356.3</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1022.79129229096</v>
+        <v>133.042681769475</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>612.636025822038</v>
+        <v>678.740684474531</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0</v>
+        <v>1.71766035571182</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.813384435553089</v>
+        <v>1.22784462895603</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0</v>
+        <v>0.129262392097915</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4422</v>
+        <v>12379.0333333333</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0</v>
+        <v>117.659791079118</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>633.881573172315</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>8.43259607445784</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.900503970180071</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.0460154362025134</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>7373.56666666667</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1129.6664958978</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>631.324910137899</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>8.0904035289663</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.903325084617783</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.0522398133969506</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>6980.8</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>1022.79129229096</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>612.636025822038</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.813384435553089</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>4422</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="5" t="n">
-        <v>612.565931392732</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>0.799996399991914</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>4461</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1401,10 +1368,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1442,7 +1409,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="7" t="n">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
@@ -1465,7 +1432,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="7" t="n">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="n">
@@ -1488,7 +1455,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="7" t="n">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="n">
@@ -1511,7 +1478,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="7" t="n">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="n">
@@ -1534,7 +1501,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="7" t="n">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="n">
@@ -1557,7 +1524,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="7" t="n">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="n">
@@ -1580,7 +1547,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="7" t="n">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="n">
@@ -1602,6 +1569,11 @@
         <v>364.023747172828</v>
       </c>
     </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
